--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S6/S6_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S6/S6_dampingfactor.xlsx
@@ -14,228 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>93.30999620440979</t>
-  </si>
-  <si>
-    <t>94.56609502777681</t>
-  </si>
-  <si>
-    <t>95.97122252510266</t>
-  </si>
-  <si>
-    <t>96.92926400055208</t>
-  </si>
-  <si>
-    <t>97.79268409571021</t>
-  </si>
-  <si>
-    <t>98.65373865636107</t>
-  </si>
-  <si>
-    <t>99.54182789709515</t>
-  </si>
-  <si>
-    <t>100.3569235016045</t>
-  </si>
-  <si>
-    <t>101.29367516648838</t>
-  </si>
-  <si>
-    <t>102.31558607363445</t>
-  </si>
-  <si>
-    <t>103.06498740554156</t>
-  </si>
-  <si>
-    <t>104.44456713018874</t>
-  </si>
-  <si>
-    <t>105.89227424864566</t>
-  </si>
-  <si>
-    <t>107.619790305964</t>
-  </si>
-  <si>
-    <t>110.01776642934644</t>
-  </si>
-  <si>
-    <t>111.98589113940551</t>
-  </si>
-  <si>
-    <t>113.72692453676547</t>
-  </si>
-  <si>
-    <t>115.5323004727235</t>
-  </si>
-  <si>
-    <t>117.49096304475346</t>
-  </si>
-  <si>
-    <t>119.34743452606881</t>
-  </si>
-  <si>
-    <t>121.22093785583658</t>
-  </si>
-  <si>
-    <t>123.02631379179462</t>
-  </si>
-  <si>
-    <t>124.93388081846727</t>
-  </si>
-  <si>
-    <t>126.84144784513992</t>
-  </si>
-  <si>
-    <t>128.7149511749077</t>
-  </si>
-  <si>
-    <t>130.58845450467547</t>
-  </si>
-  <si>
-    <t>132.46195783444324</t>
-  </si>
-  <si>
-    <t>134.33546116421104</t>
-  </si>
-  <si>
-    <t>136.2089644939788</t>
-  </si>
-  <si>
-    <t>138.08246782374658</t>
-  </si>
-  <si>
-    <t>139.95597115351438</t>
-  </si>
-  <si>
-    <t>141.82947448328216</t>
-  </si>
-  <si>
-    <t>143.70297781304993</t>
-  </si>
-  <si>
-    <t>145.57648114281773</t>
-  </si>
-  <si>
-    <t>147.44998447258547</t>
-  </si>
-  <si>
-    <t>148.81253234878022</t>
-  </si>
-  <si>
-    <t>0.04476049922644115</t>
-  </si>
-  <si>
-    <t>0.0620623350355496</t>
-  </si>
-  <si>
-    <t>0.08038623211005175</t>
-  </si>
-  <si>
-    <t>0.10384949828531115</t>
-  </si>
-  <si>
-    <t>0.13189647784791658</t>
-  </si>
-  <si>
-    <t>0.1809633111031493</t>
-  </si>
-  <si>
-    <t>0.24582436874185043</t>
-  </si>
-  <si>
-    <t>0.3154311526312483</t>
-  </si>
-  <si>
-    <t>0.4206524810319923</t>
-  </si>
-  <si>
-    <t>0.5111284604110421</t>
-  </si>
-  <si>
-    <t>0.7024355165300111</t>
-  </si>
-  <si>
-    <t>0.9162198531074299</t>
-  </si>
-  <si>
-    <t>1.1194770892234631</t>
-  </si>
-  <si>
-    <t>1.2433194765494098</t>
-  </si>
-  <si>
-    <t>1.2278950022946584</t>
-  </si>
-  <si>
-    <t>1.1491601620547127</t>
-  </si>
-  <si>
-    <t>1.0104608358163865</t>
-  </si>
-  <si>
-    <t>0.9132939894223677</t>
-  </si>
-  <si>
-    <t>0.8480716382979521</t>
-  </si>
-  <si>
-    <t>0.7742127431051844</t>
-  </si>
-  <si>
-    <t>0.6846918513921219</t>
-  </si>
-  <si>
-    <t>0.6416573062162645</t>
-  </si>
-  <si>
-    <t>0.6115758431685504</t>
-  </si>
-  <si>
-    <t>0.5586344193595265</t>
-  </si>
-  <si>
-    <t>0.5330574944793126</t>
-  </si>
-  <si>
-    <t>0.5221028398041854</t>
-  </si>
-  <si>
-    <t>0.5036649113006405</t>
-  </si>
-  <si>
-    <t>0.4939897805920545</t>
-  </si>
-  <si>
-    <t>0.4858614925390273</t>
-  </si>
-  <si>
-    <t>0.4832921001170896</t>
-  </si>
-  <si>
-    <t>0.4674064814197116</t>
-  </si>
-  <si>
-    <t>0.4673265413104666</t>
-  </si>
-  <si>
-    <t>0.46679927937588483</t>
-  </si>
-  <si>
-    <t>0.47105020190761693</t>
-  </si>
-  <si>
-    <t>0.4947677359716496</t>
-  </si>
-  <si>
-    <t>0.5031138611401729</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -608,291 +392,291 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
+      <c r="A2">
+        <v>93.30999620440979</v>
+      </c>
+      <c r="B2">
+        <v>0.04476049922644115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
+      <c r="A3">
+        <v>94.56609502777681</v>
+      </c>
+      <c r="B3">
+        <v>0.0620623350355496</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
+      <c r="A4">
+        <v>95.97122252510266</v>
+      </c>
+      <c r="B4">
+        <v>0.08038623211005175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
+      <c r="A5">
+        <v>96.92926400055208</v>
+      </c>
+      <c r="B5">
+        <v>0.1038494982853111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
+      <c r="A6">
+        <v>97.79268409571021</v>
+      </c>
+      <c r="B6">
+        <v>0.1318964778479166</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
+      <c r="A7">
+        <v>98.65373865636107</v>
+      </c>
+      <c r="B7">
+        <v>0.1809633111031493</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
+      <c r="A8">
+        <v>99.54182789709515</v>
+      </c>
+      <c r="B8">
+        <v>0.2458243687418504</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
+      <c r="A9">
+        <v>100.3569235016045</v>
+      </c>
+      <c r="B9">
+        <v>0.3154311526312483</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
+      <c r="A10">
+        <v>101.2936751664884</v>
+      </c>
+      <c r="B10">
+        <v>0.4206524810319923</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
+      <c r="A11">
+        <v>102.3155860736344</v>
+      </c>
+      <c r="B11">
+        <v>0.5111284604110421</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
+      <c r="A12">
+        <v>103.0649874055416</v>
+      </c>
+      <c r="B12">
+        <v>0.7024355165300111</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
+      <c r="A13">
+        <v>104.4445671301887</v>
+      </c>
+      <c r="B13">
+        <v>0.9162198531074299</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
+      <c r="A14">
+        <v>105.8922742486457</v>
+      </c>
+      <c r="B14">
+        <v>1.119477089223463</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
+      <c r="A15">
+        <v>107.619790305964</v>
+      </c>
+      <c r="B15">
+        <v>1.24331947654941</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
+      <c r="A16">
+        <v>110.0177664293464</v>
+      </c>
+      <c r="B16">
+        <v>1.227895002294658</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
+      <c r="A17">
+        <v>111.9858911394055</v>
+      </c>
+      <c r="B17">
+        <v>1.149160162054713</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
+      <c r="A18">
+        <v>113.7269245367655</v>
+      </c>
+      <c r="B18">
+        <v>1.010460835816386</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
+      <c r="A19">
+        <v>115.5323004727235</v>
+      </c>
+      <c r="B19">
+        <v>0.9132939894223677</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
+      <c r="A20">
+        <v>117.4909630447535</v>
+      </c>
+      <c r="B20">
+        <v>0.8480716382979521</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
+      <c r="A21">
+        <v>119.3474345260688</v>
+      </c>
+      <c r="B21">
+        <v>0.7742127431051844</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
+      <c r="A22">
+        <v>121.2209378558366</v>
+      </c>
+      <c r="B22">
+        <v>0.6846918513921219</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
+      <c r="A23">
+        <v>123.0263137917946</v>
+      </c>
+      <c r="B23">
+        <v>0.6416573062162645</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
+      <c r="A24">
+        <v>124.9338808184673</v>
+      </c>
+      <c r="B24">
+        <v>0.6115758431685504</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
+      <c r="A25">
+        <v>126.8414478451399</v>
+      </c>
+      <c r="B25">
+        <v>0.5586344193595265</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
+      <c r="A26">
+        <v>128.7149511749077</v>
+      </c>
+      <c r="B26">
+        <v>0.5330574944793126</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
+      <c r="A27">
+        <v>130.5884545046755</v>
+      </c>
+      <c r="B27">
+        <v>0.5221028398041854</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
+      <c r="A28">
+        <v>132.4619578344432</v>
+      </c>
+      <c r="B28">
+        <v>0.5036649113006405</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
+      <c r="A29">
+        <v>134.335461164211</v>
+      </c>
+      <c r="B29">
+        <v>0.4939897805920545</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
+      <c r="A30">
+        <v>136.2089644939788</v>
+      </c>
+      <c r="B30">
+        <v>0.4858614925390273</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
+      <c r="A31">
+        <v>138.0824678237466</v>
+      </c>
+      <c r="B31">
+        <v>0.4832921001170896</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
+      <c r="A32">
+        <v>139.9559711535144</v>
+      </c>
+      <c r="B32">
+        <v>0.4674064814197116</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
+      <c r="A33">
+        <v>141.8294744832822</v>
+      </c>
+      <c r="B33">
+        <v>0.4673265413104666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
+      <c r="A34">
+        <v>143.7029778130499</v>
+      </c>
+      <c r="B34">
+        <v>0.4667992793758848</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
+      <c r="A35">
+        <v>145.5764811428177</v>
+      </c>
+      <c r="B35">
+        <v>0.4710502019076169</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
+      <c r="A36">
+        <v>147.4499844725855</v>
+      </c>
+      <c r="B36">
+        <v>0.4947677359716496</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
+      <c r="A37">
+        <v>148.8125323487802</v>
+      </c>
+      <c r="B37">
+        <v>0.5031138611401729</v>
       </c>
     </row>
   </sheetData>
